--- a/Soen287_A2_Mark_Schema.xlsx
+++ b/Soen287_A2_Mark_Schema.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25103"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Z-Jessey\School\Concordia University\Terms\Winter 2022\SOEN 287\Assignments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3461a28d05c50664/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD514113-AD5B-4D92-A4A4-CE35DAC17FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA6231FF-2D2D-42DC-81D9-F52E26F66AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-5510" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2625" yWindow="2910" windowWidth="13740" windowHeight="7215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,6 +24,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,41 +32,145 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="52">
+  <si>
+    <t>Member #</t>
+  </si>
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>Student ID</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>Fadoua Doghmane</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>Jessey Thach</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>Shamma Markis</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>Lachezara Lazarova</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>Tanya So Tin Yan</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>Ihana Fahmy</t>
+  </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
   <si>
     <t>Max</t>
   </si>
   <si>
-    <t>Final Assignment Grade</t>
-  </si>
-  <si>
-    <t>Refresh Page</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>The website needs to be hosted online.</t>
-  </si>
-  <si>
-    <t>Online Hosting</t>
-  </si>
-  <si>
-    <t>User Interface</t>
+    <t>Member #1</t>
+  </si>
+  <si>
+    <t>Member #2</t>
+  </si>
+  <si>
+    <t>Member #3</t>
+  </si>
+  <si>
+    <t>Member #4</t>
+  </si>
+  <si>
+    <t>Member #5</t>
+  </si>
+  <si>
+    <t>Member #6</t>
+  </si>
+  <si>
+    <t>Member #7</t>
+  </si>
+  <si>
+    <t>Member(s) Assigned to This Item</t>
   </si>
   <si>
     <t>Javascript
 Backstory pages and Sign In/Sign Up pages are not parts of the WP2, and functions required in WP3 will not be checked here.</t>
   </si>
   <si>
+    <t>1. Links on P2 must be functional and redirect the user to the product page. (5 points)</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>2. On P3, the "More Description" button must work as described in the handout (PDF page 6).</t>
+  </si>
+  <si>
+    <t>3. On P3, when the user changes the properties of the product (e.g., quantity, color, size, ...), the price must be updated accordingly without refreshing the page. For instance, if the price is 10$ per unit and the user changes the quantity to 2, the price must be changed to 20$ immediately.</t>
+  </si>
+  <si>
+    <t>#1 - #3 - #5</t>
+  </si>
+  <si>
     <t>4. On the Cart page (P4), by changing the quantity for each item, the whole summary table, including the number of items, QST, GST, and Total Amount, must be updated dynamically.</t>
   </si>
   <si>
-    <t>3. On P3, when the user changes the properties of the product (e.g., quantity, color, size, ...), the price must be updated accordingly without refreshing the page. For instance, if the price is 10$ per unit and the user changes the quantity to 2, the price must be changed to 20$ immediately.</t>
-  </si>
-  <si>
-    <t>2. On P3, the "More Description" button must work as described in the handout (PDF page 6).</t>
-  </si>
-  <si>
-    <t>NA</t>
+    <t>#2 - #4 - #6</t>
+  </si>
+  <si>
+    <t>CSS Responsive Design
+The pages must be responsive to the desktop, tablet, and mobile views. On the smaller screens, nothing must be missing or overlapped, text must be easily readable, buttons must be easy to click, and horizontal scrolls should be avoided (except for tables).</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>Refresh Page</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>On the Product page (P3), the properties chosen by the user (e.g., quantity, color, size, ...) must remain constant in the case of refreshing or re-opening the page and do not return to their default value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All
+</t>
+  </si>
+  <si>
+    <t>User Interface</t>
   </si>
   <si>
     <t>The store should generally be easy to use, and the quality of the user interface be the same as or higher than the average of the class to get the full mark of this item.</t>
@@ -75,20 +180,10 @@
 (Do not change)</t>
   </si>
   <si>
-    <t>CSS Responsive Design
-The pages must be responsive to the desktop, tablet, and mobile views. On the smaller screens, nothing must be missing or overlapped, text must be easily readable, buttons must be easy to click, and horizontal scrolls should be avoided (except for tables).</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>1. Links on P2 must be functional and redirect the user to the product page. (5 points)</t>
+    <t>Online Hosting</t>
+  </si>
+  <si>
+    <t>The website needs to be hosted online.</t>
   </si>
   <si>
     <t>Achieved Scores</t>
@@ -97,101 +192,14 @@
     <t>Max Possible Score</t>
   </si>
   <si>
-    <t>Student Name #5</t>
-  </si>
-  <si>
-    <t>On the Product page (P3), the properties chosen by the user (e.g., quantity, color, size, ...) must remain constant in the case of refreshing or re-opening the page and do not return to their default value.</t>
-  </si>
-  <si>
-    <t>Member #</t>
-  </si>
-  <si>
-    <t>Student Name</t>
-  </si>
-  <si>
-    <t>Student ID</t>
-  </si>
-  <si>
-    <t>#1</t>
-  </si>
-  <si>
-    <t>#2</t>
-  </si>
-  <si>
-    <t>#3</t>
-  </si>
-  <si>
-    <t>#4</t>
-  </si>
-  <si>
-    <t>#5</t>
-  </si>
-  <si>
-    <t>#6</t>
-  </si>
-  <si>
-    <t>#7</t>
-  </si>
-  <si>
-    <t>Member #5</t>
-  </si>
-  <si>
-    <t>Member #1</t>
-  </si>
-  <si>
-    <t>Member #7</t>
-  </si>
-  <si>
-    <t>Member #6</t>
-  </si>
-  <si>
-    <t>Member #4</t>
-  </si>
-  <si>
-    <t>Member #3</t>
-  </si>
-  <si>
-    <t>Member #2</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Member(s) Assigned to This Item</t>
-  </si>
-  <si>
-    <t>Fadoua Doghmane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40211998	</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>Ihana Fahmy</t>
-  </si>
-  <si>
-    <t>Lachezara Lazarova</t>
-  </si>
-  <si>
-    <t>Shamma Markis</t>
-  </si>
-  <si>
-    <t>Jessey Thach</t>
-  </si>
-  <si>
-    <t>All</t>
+    <t>Final Assignment Grade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,13 +216,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -415,18 +416,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -440,7 +436,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -449,13 +445,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -465,35 +461,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -504,7 +494,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -513,16 +503,23 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1109,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1131,664 +1128,655 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" ht="18.75">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="A3" s="32"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="20" spans="1:11" ht="34.9" customHeight="1" thickBot="1">
-      <c r="A20" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="32"/>
+      <c r="A20" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="27"/>
       <c r="I20"/>
       <c r="J20"/>
     </row>
     <row r="21" spans="1:11" ht="34.9" customHeight="1" thickBot="1">
-      <c r="A21" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34">
+      <c r="A21" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29">
         <v>40198495</v>
       </c>
-      <c r="E21" s="34"/>
+      <c r="E21" s="29"/>
       <c r="I21"/>
       <c r="J21"/>
     </row>
     <row r="22" spans="1:11" ht="34.9" customHeight="1" thickBot="1">
-      <c r="A22" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="25">
+      <c r="A22" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="30">
         <v>40210440</v>
       </c>
-      <c r="E22" s="26"/>
+      <c r="E22" s="31"/>
       <c r="I22"/>
       <c r="J22"/>
     </row>
     <row r="23" spans="1:11" ht="34.9" customHeight="1" thickBot="1">
-      <c r="A23" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="26"/>
+      <c r="A23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="30">
+        <v>40211998</v>
+      </c>
+      <c r="E23" s="31"/>
       <c r="I23"/>
       <c r="J23"/>
     </row>
     <row r="24" spans="1:11" ht="34.9" customHeight="1" thickBot="1">
-      <c r="A24" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="25">
+      <c r="A24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="30">
         <v>40211033</v>
       </c>
-      <c r="E24" s="26"/>
+      <c r="E24" s="31"/>
       <c r="I24"/>
       <c r="J24"/>
     </row>
     <row r="25" spans="1:11" ht="34.9" customHeight="1" thickBot="1">
-      <c r="A25" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="25">
+      <c r="A25" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="30">
         <v>40208954</v>
       </c>
-      <c r="E25" s="26"/>
+      <c r="E25" s="31"/>
       <c r="I25"/>
       <c r="J25"/>
     </row>
     <row r="26" spans="1:11" ht="34.9" customHeight="1" thickBot="1">
-      <c r="A26" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="25">
+      <c r="A26" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="30">
         <v>40209686</v>
       </c>
-      <c r="E26" s="26"/>
+      <c r="E26" s="31"/>
       <c r="I26"/>
       <c r="J26"/>
     </row>
     <row r="27" spans="1:11" ht="34.9" customHeight="1" thickBot="1">
-      <c r="A27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="26"/>
+      <c r="A27" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="31"/>
       <c r="I27"/>
       <c r="J27"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:11" ht="54" customHeight="1" thickBot="1">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="72" customHeight="1" thickBot="1">
+      <c r="A31" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="2">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="61.15" customHeight="1" thickBot="1">
+      <c r="A32" s="23"/>
+      <c r="B32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="2">
+        <v>10</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="127.9" customHeight="1" thickBot="1">
+      <c r="A33" s="23"/>
+      <c r="B33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="2">
+        <v>15</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="90" customHeight="1" thickBot="1">
+      <c r="A34" s="24"/>
+      <c r="B34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="2">
+        <v>20</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="64.900000000000006" customHeight="1" thickBot="1">
+      <c r="A35" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="64.900000000000006" customHeight="1" thickBot="1">
+      <c r="A36" s="23"/>
+      <c r="B36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="2">
+        <v>3</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K36" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36" s="10"/>
+    </row>
+    <row r="37" spans="1:15" ht="64.900000000000006" customHeight="1" thickBot="1">
+      <c r="A37" s="24"/>
+      <c r="B37" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I30" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="J30" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="K30" s="21" t="s">
+      <c r="C37" s="2">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K37" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+    </row>
+    <row r="38" spans="1:15" ht="95.45" customHeight="1" thickBot="1">
+      <c r="A38" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="72" customHeight="1" thickBot="1">
-      <c r="A31" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="5">
-        <v>5</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="B38" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="2">
+        <v>20</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+    </row>
+    <row r="39" spans="1:15" ht="86.45" customHeight="1" thickBot="1">
+      <c r="A39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="2">
         <v>10</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="D39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K39" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+    </row>
+    <row r="40" spans="1:15" ht="75.75" customHeight="1" thickBot="1">
+      <c r="A40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="2">
         <v>10</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K31" s="17" t="s">
+      <c r="D40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K40" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+    </row>
+    <row r="41" spans="1:15" ht="34.9" customHeight="1" thickBot="1">
+      <c r="A41" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="61.15" customHeight="1" thickBot="1">
-      <c r="A32" s="28"/>
-      <c r="B32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="5">
-        <v>10</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K32" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="127.9" customHeight="1" thickBot="1">
-      <c r="A33" s="28"/>
-      <c r="B33" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="5">
-        <v>15</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K33" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="90" customHeight="1" thickBot="1">
-      <c r="A34" s="29"/>
-      <c r="B34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="5">
-        <v>20</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K34" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="64.900000000000006" customHeight="1" thickBot="1">
-      <c r="A35" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="5">
-        <v>3</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K35" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="64.900000000000006" customHeight="1" thickBot="1">
-      <c r="A36" s="28"/>
-      <c r="B36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="5">
-        <v>3</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L36" s="13"/>
-    </row>
-    <row r="37" spans="1:15" ht="64.900000000000006" customHeight="1" thickBot="1">
-      <c r="A37" s="29"/>
-      <c r="B37" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="5">
-        <v>4</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K37" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-    </row>
-    <row r="38" spans="1:15" ht="95.45" customHeight="1" thickBot="1">
-      <c r="A38" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="5">
-        <v>20</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K38" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-    </row>
-    <row r="39" spans="1:15" ht="86.45" customHeight="1" thickBot="1">
-      <c r="A39" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="5">
-        <v>10</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K39" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-    </row>
-    <row r="40" spans="1:15" ht="75.75" customHeight="1" thickBot="1">
-      <c r="A40" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="5">
-        <v>10</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K40" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-    </row>
-    <row r="41" spans="1:15" ht="34.9" customHeight="1" thickBot="1">
-      <c r="A41" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="11">
+      <c r="B41" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="8">
         <f>SUMIF(D31:D40, "&lt;&gt;NA")</f>
         <v>0</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="8">
         <f>SUMIF(E31:E40, "&lt;&gt;NA")</f>
         <v>0</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="8">
         <f t="shared" ref="F41:J41" si="0">SUMIF(F31:F40, "&lt;&gt;NA")</f>
         <v>0</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H41" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="11">
+      <c r="I41" s="8">
         <f>SUMIF(I31:I40, "&lt;&gt;NA")</f>
         <v>0</v>
       </c>
-      <c r="J41" s="11">
+      <c r="J41" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="34.9" customHeight="1" thickBot="1">
-      <c r="A42" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="11">
+      <c r="A42" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="8">
         <f>SUMIF(D31:D40,"&lt;&gt;NA",C31:C40)</f>
         <v>0</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="8">
         <f>SUMIF(E31:E40,"&lt;&gt;NA",C31:C40)</f>
         <v>0</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="8">
         <f>SUMIF(F31:F40,"&lt;&gt;NA",C31:C40)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="8">
         <f>SUMIF(G31:G40,"&lt;&gt;NA",C31:C40)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="8">
         <f>SUMIF(H31:H40,"&lt;&gt;NA",C31:C40)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I42" s="8">
         <f>SUMIF(I31:I40,"&lt;&gt;NA",C31:C40)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="11">
+      <c r="J42" s="8">
         <f>SUMIF(J31:J40,"&lt;&gt;NA",C31:C40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="55.9" customHeight="1" thickBot="1">
-      <c r="A43" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="19" t="e">
+      <c r="A43" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="16" t="e">
         <f t="shared" ref="D43:H43" si="1">D41/D42</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E43" s="19" t="e">
+      <c r="E43" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F43" s="19" t="e">
+      <c r="F43" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G43" s="19" t="e">
+      <c r="G43" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="19" t="e">
+      <c r="H43" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I43" s="19" t="e">
+      <c r="I43" s="16" t="e">
         <f>I41/I42</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J43" s="19" t="e">
+      <c r="J43" s="16" t="e">
         <f>J41/J42</f>
         <v>#DIV/0!</v>
       </c>
@@ -1796,28 +1784,28 @@
   </sheetData>
   <sheetProtection formatRows="0"/>
   <mergeCells count="20">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A31:A34"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B26:C26"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
